--- a/almacen.xlsx
+++ b/almacen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,73 +424,89 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id_producto</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Proveedor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pan molde</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
+          <t>DJ001P00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pan Bimbo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>paquete 1kg</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PEPE'S</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alibaba</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>atun</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pan integral</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>pan cpp</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">atun </t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+          <t>DJ001P00002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>atun marisol</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>lata 250g</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pepe's</t>
+        </is>
       </c>
     </row>
   </sheetData>
